--- a/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
+++ b/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
@@ -451,7 +451,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1993</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1989</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>1953</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>1949</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>1947</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>1945</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>1944</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>1928</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>1919</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>1917</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>1914</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>1912</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>1903</v>
       </c>
       <c r="B14" t="inlineStr">

--- a/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
+++ b/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
@@ -451,7 +451,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1993</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1989</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>1953</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>1949</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>1947</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>1945</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>1944</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>1928</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>1919</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>1917</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>1914</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>1912</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>1903</v>
       </c>
       <c r="B14" t="inlineStr">
